--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed2/result_data_KNN.xlsx
@@ -468,18 +468,18 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.194</v>
+        <v>-12.621</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.238</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.044</v>
+        <v>-21.837</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.946</v>
+        <v>-7.561999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.99</v>
+        <v>16.837</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.762</v>
+        <v>-7.611</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.736</v>
+        <v>-21.913</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.922</v>
+        <v>-22.075</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.572</v>
+        <v>-12.282</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.364</v>
+        <v>16.434</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.694</v>
+        <v>-20.217</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.37</v>
+        <v>-20.299</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,27 +842,27 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.58</v>
+        <v>-11.891</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.587999999999999</v>
+        <v>-7.526999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>17.304</v>
+        <v>16.952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.952</v>
+        <v>-22.037</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.516</v>
+        <v>-13.549</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.85</v>
+        <v>-8.716999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.368</v>
+        <v>-21.435</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.89</v>
+        <v>-13.128</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.552</v>
+        <v>16.658</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.922</v>
+        <v>-21.219</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,13 +944,13 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.326</v>
+        <v>-12.686</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.698</v>
+        <v>16.887</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.96</v>
+        <v>-12.126</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>17.392</v>
+        <v>17.123</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.776</v>
+        <v>17.573</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.614</v>
+        <v>-12.702</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.948</v>
+        <v>-19.938</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.470000000000001</v>
+        <v>-8.195</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,13 +1148,13 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.304</v>
+        <v>-12.852</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.442</v>
+        <v>16.606</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.484</v>
+        <v>-11.598</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.459999999999999</v>
+        <v>-8.233000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.02</v>
+        <v>-11.564</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.284</v>
+        <v>-11.606</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.216</v>
+        <v>-21.924</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.959999999999999</v>
+        <v>-7.815</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.032</v>
+        <v>-13.341</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.604</v>
+        <v>16.057</v>
       </c>
     </row>
     <row r="56">
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.868</v>
+        <v>-12.362</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.358000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.006</v>
+        <v>-21.891</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.508</v>
+        <v>-12.926</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.878</v>
+        <v>-8.822999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,15 +1423,15 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.815999999999999</v>
+        <v>-8.318</v>
       </c>
       <c r="E58" t="n">
-        <v>16.388</v>
+        <v>16.589</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.202</v>
+        <v>-22.323</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.188</v>
+        <v>-12.296</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.847999999999999</v>
+        <v>-7.708</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.762</v>
+        <v>-7.885999999999998</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.232000000000001</v>
+        <v>-7.930000000000001</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.156</v>
+        <v>-21.421</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.018</v>
+        <v>17.114</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.718</v>
+        <v>-21.833</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.49</v>
+        <v>-7.598000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>17.522</v>
+        <v>17.612</v>
       </c>
     </row>
     <row r="71">
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.696000000000001</v>
+        <v>-7.356999999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.75</v>
+        <v>-12.995</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,13 +1692,13 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.06</v>
+        <v>-12.077</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.332</v>
+        <v>16.575</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.538</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.952</v>
+        <v>-20.849</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.792</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>17.032</v>
+        <v>16.874</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>17.086</v>
+        <v>17.027</v>
       </c>
     </row>
     <row r="85">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.459999999999999</v>
+        <v>-8.367000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>16.542</v>
+        <v>16.828</v>
       </c>
     </row>
     <row r="87">
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.058</v>
+        <v>-12.305</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.334</v>
+        <v>-7.857999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.294</v>
+        <v>-13.047</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.508</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-12.01</v>
+        <v>-11.915</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.702</v>
+        <v>-21.203</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.15</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.604</v>
+        <v>16.846</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-9.258000000000001</v>
+        <v>-8.612</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.996</v>
+        <v>-22.017</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-9.172000000000001</v>
+        <v>-8.690999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.657999999999999</v>
+        <v>-7.859</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
